--- a/data/trans_dic/P1412-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1412-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00751864475334232</v>
+        <v>0.007622221302545078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01061860210967494</v>
+        <v>0.01060824755636923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01225778593695957</v>
+        <v>0.01240273564663203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01031274600035596</v>
+        <v>0.0104324427430552</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007103316945781649</v>
+        <v>0.007648023334789518</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.008454819219162199</v>
+        <v>0.008416382495770437</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01084643877849124</v>
+        <v>0.01084030442078599</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0102870983020419</v>
+        <v>0.01068199408678835</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01215247155856411</v>
+        <v>0.01185772293720052</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02331604456470834</v>
+        <v>0.02252282762003839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0285441596657502</v>
+        <v>0.02973089944750753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0360618845369065</v>
+        <v>0.03616330273292259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02519482693610233</v>
+        <v>0.02446802852941104</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02304840899384185</v>
+        <v>0.02425080888201395</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02045773672487144</v>
+        <v>0.02013910742426115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02175348157937711</v>
+        <v>0.02073809974285398</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02199463464128001</v>
+        <v>0.02355648084345486</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02456019290794814</v>
+        <v>0.0227884629650774</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.002275751784812315</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.003985702853121498</v>
+        <v>0.003985702853121497</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.003115714590580021</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00209707204683756</v>
+        <v>0.002077803783206637</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002007949057902089</v>
+        <v>0.00203188624151343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003708109988856448</v>
+        <v>0.003809554206392444</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0006317098110311074</v>
+        <v>0.0005411340269421873</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00213492267916924</v>
+        <v>0.00223813442735179</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001492462139215673</v>
+        <v>0.001450365834967269</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001679489059201906</v>
+        <v>0.001825957830657795</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003522550308962292</v>
+        <v>0.003483082156871169</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01013677957609517</v>
+        <v>0.009978851329756689</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008423545117409347</v>
+        <v>0.007903006081468034</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01036467883077017</v>
+        <v>0.01049835331823395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.004055777033501758</v>
+        <v>0.00404555667790677</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.005843091390622638</v>
+        <v>0.005275334429478963</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.006909907216615792</v>
+        <v>0.006911558818644533</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.006082760196273127</v>
+        <v>0.005810229470214043</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.005440516863213165</v>
+        <v>0.005556419106637324</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007273885584025382</v>
+        <v>0.0076215246017262</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.007063510169572428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.009161522999663451</v>
+        <v>0.009161522999663449</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.002295218304018806</v>
@@ -894,10 +894,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.001689354749329098</v>
+        <v>0.001681069535176926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004599670992935493</v>
+        <v>0.004656527307156338</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001050454504995814</v>
+        <v>0.001053291737528235</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002683552169924162</v>
+        <v>0.002712331155460408</v>
       </c>
     </row>
     <row r="12">
@@ -927,28 +927,28 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02170215973180682</v>
+        <v>0.01927665405229968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01716537010118341</v>
+        <v>0.01701777347504634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01147451918282386</v>
+        <v>0.01151875781134484</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.008830413948124612</v>
+        <v>0.007566709840027799</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.005248931825144135</v>
+        <v>0.005349545778685791</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.00563848672219376</v>
+        <v>0.00565111903985878</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01187955704020212</v>
+        <v>0.01166974747242987</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.009921598239852</v>
+        <v>0.009176204830261466</v>
       </c>
     </row>
     <row r="13">
@@ -978,7 +978,7 @@
         <v>0.005431109440519724</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.005632952429295913</v>
+        <v>0.005632952429295914</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.006851590048025844</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004338812559918206</v>
+        <v>0.00416743409737482</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005255345560929521</v>
+        <v>0.004983862744300472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006602918356854372</v>
+        <v>0.00670530825049196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00443937857561391</v>
+        <v>0.00458338527707315</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003251575071085135</v>
+        <v>0.003334097622436657</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004038225453768106</v>
+        <v>0.003959328615560204</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00498200367769306</v>
+        <v>0.005002973341872744</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00482853751188349</v>
+        <v>0.004811808393069156</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005959781176845407</v>
+        <v>0.005817388930072082</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0104438184087519</v>
+        <v>0.01013429241510038</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01120932021445247</v>
+        <v>0.01114953075205055</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0129506576041058</v>
+        <v>0.01289527739273294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01003267855616195</v>
+        <v>0.01039067449163758</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.008794462540089063</v>
+        <v>0.008566342445774694</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.007988248280121138</v>
+        <v>0.00778005989625908</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.009123922021197861</v>
+        <v>0.009235176214767426</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.008875889018685973</v>
+        <v>0.009011946591814386</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.009242063152975537</v>
+        <v>0.009053212234014171</v>
       </c>
     </row>
     <row r="16">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7328</v>
+        <v>7429</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8010</v>
+        <v>8002</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7062</v>
+        <v>7146</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13784</v>
+        <v>13944</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7065</v>
+        <v>7607</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6944</v>
+        <v>6913</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25069</v>
+        <v>25055</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17992</v>
+        <v>18683</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16983</v>
+        <v>16571</v>
       </c>
     </row>
     <row r="7">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22725</v>
+        <v>21952</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21532</v>
+        <v>22427</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20777</v>
+        <v>20835</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33676</v>
+        <v>32704</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22925</v>
+        <v>24121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16802</v>
+        <v>16541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50278</v>
+        <v>47931</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38469</v>
+        <v>41200</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34322</v>
+        <v>31846</v>
       </c>
     </row>
     <row r="8">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4119</v>
+        <v>4081</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4169</v>
+        <v>4219</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8263</v>
+        <v>8489</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1256</v>
+        <v>1076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4629</v>
+        <v>4853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5548</v>
+        <v>5392</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6827</v>
+        <v>7422</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15487</v>
+        <v>15314</v>
       </c>
     </row>
     <row r="11">
@@ -1464,31 +1464,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19908</v>
+        <v>19598</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17491</v>
+        <v>16410</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23096</v>
+        <v>23394</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7112</v>
+        <v>7094</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11618</v>
+        <v>10489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14982</v>
+        <v>14986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22613</v>
+        <v>21600</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22114</v>
+        <v>22585</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31980</v>
+        <v>33509</v>
       </c>
     </row>
     <row r="12">
@@ -1574,10 +1574,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3273</v>
+        <v>3314</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3878</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="15">
@@ -1607,28 +1607,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11869</v>
+        <v>10542</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12215</v>
+        <v>12110</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5263</v>
+        <v>5283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4849</v>
+        <v>4155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3850</v>
+        <v>3924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5299</v>
+        <v>5311</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13020</v>
+        <v>12790</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14337</v>
+        <v>13260</v>
       </c>
     </row>
     <row r="16">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14838</v>
+        <v>14252</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17751</v>
+        <v>16834</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23216</v>
+        <v>23576</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15755</v>
+        <v>16266</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11485</v>
+        <v>11776</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15034</v>
+        <v>14741</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>34718</v>
+        <v>34864</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>33364</v>
+        <v>33248</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>43143</v>
+        <v>42113</v>
       </c>
     </row>
     <row r="19">
@@ -1748,31 +1748,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35716</v>
+        <v>34657</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37861</v>
+        <v>37659</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45535</v>
+        <v>45341</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35605</v>
+        <v>36875</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31063</v>
+        <v>30257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29740</v>
+        <v>28965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>63582</v>
+        <v>64357</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>61330</v>
+        <v>62270</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66904</v>
+        <v>65537</v>
       </c>
     </row>
     <row r="20">
